--- a/individual-taxonomy.xlsx
+++ b/individual-taxonomy.xlsx
@@ -140,9 +140,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>The taxonomy an individual.</t>
-  </si>
-  <si>
     <t>The taxonomy of an individual.</t>
   </si>
   <si>
@@ -239,6 +236,10 @@
   </si>
   <si>
     <t>closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
@@ -584,7 +585,7 @@
         <v>41</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -641,13 +642,13 @@
         <v>38</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
@@ -655,7 +656,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -678,13 +679,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -735,7 +736,7 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
@@ -750,12 +751,12 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -778,13 +779,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -823,31 +824,31 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>37</v>
@@ -855,7 +856,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -878,16 +879,16 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -895,7 +896,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>37</v>
@@ -937,7 +938,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>39</v>
@@ -952,12 +953,12 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -980,13 +981,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1025,17 +1026,17 @@
         <v>37</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1047,15 +1048,15 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>72</v>
@@ -1080,13 +1081,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1135,7 +1136,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1147,10 +1148,10 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
